--- a/data/trans_orig/P1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C5D06C-FA6D-4604-9ABD-CF1EF2401007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E347976-4833-462C-83CE-A73819A34A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E01C0EF-F9D3-4832-9FA8-8977E2029916}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61CE70E6-F7DD-4760-8D7A-0012AB41AFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1468 +77,1438 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>92,19%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>5,67%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>94,33%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>59,89%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>65,69%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>16,56%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>83,44%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B744983D-699F-4844-A228-F8C63CFD0367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2817D-6900-4CCB-BF2D-531DDB4A8604}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2414,13 +2384,13 @@
         <v>54127</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2405,13 @@
         <v>598956</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -2450,13 +2420,13 @@
         <v>675329</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -2465,13 +2435,13 @@
         <v>1274285</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2497,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2509,13 @@
         <v>31677</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2554,13 +2524,13 @@
         <v>24754</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2569,13 +2539,13 @@
         <v>56431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2560,13 @@
         <v>487470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>479</v>
@@ -2605,13 +2575,13 @@
         <v>490888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>935</v>
@@ -2620,13 +2590,13 @@
         <v>978358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2664,13 @@
         <v>26750</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2709,13 +2679,13 @@
         <v>35259</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2724,13 +2694,13 @@
         <v>62009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2715,13 @@
         <v>359960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -2760,13 +2730,13 @@
         <v>368727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>727</v>
@@ -2775,13 +2745,13 @@
         <v>728687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2807,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2819,13 @@
         <v>70299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -2864,13 +2834,13 @@
         <v>188964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -2879,13 +2849,13 @@
         <v>259263</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2870,13 @@
         <v>432167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -2915,13 +2885,13 @@
         <v>487878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>932</v>
@@ -2930,13 +2900,13 @@
         <v>920045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2974,13 @@
         <v>238649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>284</v>
@@ -3019,13 +2989,13 @@
         <v>296132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -3034,13 +3004,13 @@
         <v>534781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3025,13 @@
         <v>3037895</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>3013</v>
@@ -3070,28 +3040,28 @@
         <v>3083066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6000</v>
       </c>
       <c r="N23" s="7">
-        <v>6120959</v>
+        <v>6120960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3103,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3147,7 +3117,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40E4D7A-2466-4A56-852C-25ED5F7C1C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4ABD5A-B831-4255-AC21-16BEFEF369C5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3263,13 @@
         <v>6964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3308,13 +3278,13 @@
         <v>16625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3323,13 +3293,13 @@
         <v>23590</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3314,13 @@
         <v>447182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>407</v>
@@ -3359,13 +3329,13 @@
         <v>413605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
@@ -3374,13 +3344,13 @@
         <v>860786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3418,13 @@
         <v>68399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3463,13 +3433,13 @@
         <v>28125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3478,13 +3448,13 @@
         <v>96524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3469,13 @@
         <v>618688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -3514,13 +3484,13 @@
         <v>582130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>1148</v>
@@ -3529,13 +3499,13 @@
         <v>1200818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3573,13 @@
         <v>31792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3618,13 +3588,13 @@
         <v>11422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3633,13 +3603,13 @@
         <v>43214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3624,13 @@
         <v>650071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -3669,13 +3639,13 @@
         <v>699428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -3684,13 +3654,13 @@
         <v>1349498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3716,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3728,13 @@
         <v>53065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3773,13 +3743,13 @@
         <v>29327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3788,13 +3758,13 @@
         <v>82392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3779,13 @@
         <v>561552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3824,13 +3794,13 @@
         <v>586872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -3839,13 +3809,13 @@
         <v>1148424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,7 +3871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3883,13 @@
         <v>30277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3928,13 +3898,13 @@
         <v>38662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3943,13 +3913,13 @@
         <v>68939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3934,13 @@
         <v>399152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>371</v>
@@ -3979,13 +3949,13 @@
         <v>409138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3994,13 +3964,13 @@
         <v>808290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4038,13 @@
         <v>94569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>213</v>
@@ -4083,13 +4053,13 @@
         <v>229926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>298</v>
@@ -4098,13 +4068,13 @@
         <v>324495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4089,13 @@
         <v>465068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -4134,13 +4104,13 @@
         <v>513049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>900</v>
@@ -4149,13 +4119,13 @@
         <v>978117</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4193,13 @@
         <v>285066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -4238,13 +4208,13 @@
         <v>354087</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -4253,13 +4223,13 @@
         <v>639153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4244,13 @@
         <v>3141713</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>2974</v>
@@ -4289,13 +4259,13 @@
         <v>3204222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>5923</v>
@@ -4304,13 +4274,13 @@
         <v>6345935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7BD013-03BC-4232-864E-7FD1E7CC6FFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC5C760-54C3-454F-9822-A78B642B9DC3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4482,13 @@
         <v>30018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4527,13 +4497,13 @@
         <v>28940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4542,13 +4512,13 @@
         <v>58958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4533,13 @@
         <v>389445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>375</v>
@@ -4578,13 +4548,13 @@
         <v>366815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>742</v>
@@ -4593,13 +4563,13 @@
         <v>756260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4637,13 @@
         <v>62551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4682,13 +4652,13 @@
         <v>41735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -4697,13 +4667,13 @@
         <v>104287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4688,13 @@
         <v>527945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>536</v>
@@ -4733,13 +4703,13 @@
         <v>521809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -4748,13 +4718,13 @@
         <v>1049753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4792,13 @@
         <v>73183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4837,13 +4807,13 @@
         <v>29449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -4852,13 +4822,13 @@
         <v>102633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4843,13 @@
         <v>595914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
         <v>635</v>
@@ -4888,13 +4858,13 @@
         <v>631937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -4903,13 +4873,13 @@
         <v>1227850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4935,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,13 +4947,13 @@
         <v>83424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4992,13 +4962,13 @@
         <v>35537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5007,13 +4977,13 @@
         <v>118962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +4998,13 @@
         <v>562624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -5043,28 +5013,28 @@
         <v>613540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
       </c>
       <c r="N14" s="7">
-        <v>1176163</v>
+        <v>1176164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5076,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5120,7 +5090,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5102,13 @@
         <v>55422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5147,13 +5117,13 @@
         <v>76106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5162,13 +5132,13 @@
         <v>131528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5153,13 @@
         <v>422496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -5198,13 +5168,13 @@
         <v>420743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
@@ -5213,13 +5183,13 @@
         <v>843239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5245,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5257,13 @@
         <v>121497</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -5302,13 +5272,13 @@
         <v>256230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5317,13 +5287,13 @@
         <v>377727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5308,13 @@
         <v>469831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -5353,13 +5323,13 @@
         <v>521701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>942</v>
@@ -5368,13 +5338,13 @@
         <v>991532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5412,13 @@
         <v>426095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>409</v>
@@ -5457,13 +5427,13 @@
         <v>467998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -5472,13 +5442,13 @@
         <v>894093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5463,13 @@
         <v>2968255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="H23" s="7">
         <v>2929</v>
@@ -5508,13 +5478,13 @@
         <v>3076544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M23" s="7">
         <v>5755</v>
@@ -5523,13 +5493,13 @@
         <v>6044799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9029F416-175C-44D6-B8C6-9CDB9E07619E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2105974-90EB-43CC-AB93-9254510291C8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5701,13 @@
         <v>13244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5746,13 +5716,13 @@
         <v>18555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5761,13 +5731,13 @@
         <v>31800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5752,13 @@
         <v>364435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5797,13 +5767,13 @@
         <v>336402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -5812,13 +5782,13 @@
         <v>700836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5856,13 @@
         <v>66529</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -5901,13 +5871,13 @@
         <v>44107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5916,13 +5886,13 @@
         <v>110636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5907,13 @@
         <v>361867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>419</v>
@@ -5952,13 +5922,13 @@
         <v>455108</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
@@ -5967,13 +5937,13 @@
         <v>816975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6011,13 @@
         <v>86484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6056,13 +6026,13 @@
         <v>36290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -6071,13 +6041,13 @@
         <v>122774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6062,13 @@
         <v>470768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>800</v>
@@ -6107,13 +6077,13 @@
         <v>574157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -6122,13 +6092,13 @@
         <v>1044925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6154,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6166,13 @@
         <v>138192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -6211,13 +6181,13 @@
         <v>52922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -6226,13 +6196,13 @@
         <v>191114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6217,13 @@
         <v>585798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>1055</v>
@@ -6262,28 +6232,28 @@
         <v>694339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>1584</v>
       </c>
       <c r="N14" s="7">
-        <v>1280138</v>
+        <v>1280137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6295,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6339,7 +6309,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6321,13 @@
         <v>118858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -6366,13 +6336,13 @@
         <v>102276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -6381,13 +6351,13 @@
         <v>221134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6372,13 @@
         <v>481299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>833</v>
@@ -6417,13 +6387,13 @@
         <v>494787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>1365</v>
@@ -6432,13 +6402,13 @@
         <v>976086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6464,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6503,16 +6473,16 @@
         <v>271</v>
       </c>
       <c r="D19" s="7">
-        <v>179961</v>
+        <v>179962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -6521,13 +6491,13 @@
         <v>411750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
         <v>1043</v>
@@ -6536,13 +6506,13 @@
         <v>591712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6527,13 @@
         <v>517793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>936</v>
@@ -6572,13 +6542,13 @@
         <v>614887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>1693</v>
@@ -6587,13 +6557,13 @@
         <v>1132680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6575,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6661,13 +6631,13 @@
         <v>603268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>1128</v>
@@ -6676,13 +6646,13 @@
         <v>665901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>1817</v>
@@ -6691,13 +6661,13 @@
         <v>1269169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6682,13 @@
         <v>2781960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>4239</v>
@@ -6727,28 +6697,28 @@
         <v>3169680</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>6926</v>
       </c>
       <c r="N23" s="7">
-        <v>5951640</v>
+        <v>5951639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,7 +6760,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6804,7 +6774,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E347976-4833-462C-83CE-A73819A34A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A65C56-5CA8-4252-BF1C-3D9BC147B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61CE70E6-F7DD-4760-8D7A-0012AB41AFFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F07E3513-AAA4-4C46-82A9-D7B37D5B0801}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,16 +80,16 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,83%</t>
@@ -98,1243 +98,1279 @@
     <t>1,88%</t>
   </si>
   <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>7,05%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
   </si>
   <si>
     <t>94,33%</t>
@@ -1920,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2817D-6900-4CCB-BF2D-531DDB4A8604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766F3004-6C70-4FAD-A95E-0F7A487DC180}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2384,13 +2420,13 @@
         <v>54127</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2441,13 @@
         <v>598956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -2420,13 +2456,13 @@
         <v>675329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -2435,13 +2471,13 @@
         <v>1274285</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2545,13 @@
         <v>31677</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2524,13 +2560,13 @@
         <v>24754</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2539,13 +2575,13 @@
         <v>56431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2596,13 @@
         <v>487470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>479</v>
@@ -2575,13 +2611,13 @@
         <v>490888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>935</v>
@@ -2590,13 +2626,13 @@
         <v>978358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2664,13 +2700,13 @@
         <v>26750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2679,13 +2715,13 @@
         <v>35259</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2694,13 +2730,13 @@
         <v>62009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2751,13 @@
         <v>359960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -2730,13 +2766,13 @@
         <v>368727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>727</v>
@@ -2745,13 +2781,13 @@
         <v>728687</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2855,13 @@
         <v>70299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -2834,13 +2870,13 @@
         <v>188964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -2849,13 +2885,13 @@
         <v>259263</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2906,13 @@
         <v>432167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -2885,13 +2921,13 @@
         <v>487878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>932</v>
@@ -2900,13 +2936,13 @@
         <v>920045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +3010,13 @@
         <v>238649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>284</v>
@@ -2989,13 +3025,13 @@
         <v>296132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -3004,13 +3040,13 @@
         <v>534781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,16 +3058,16 @@
         <v>2987</v>
       </c>
       <c r="D23" s="7">
-        <v>3037895</v>
+        <v>3037894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3013</v>
@@ -3040,13 +3076,13 @@
         <v>3083066</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6000</v>
@@ -3055,13 +3091,13 @@
         <v>6120960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3109,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3117,7 +3153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4ABD5A-B831-4255-AC21-16BEFEF369C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37FD66-AEF5-43F1-8A84-08511587126B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3156,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,13 +3299,13 @@
         <v>6964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3278,13 +3314,13 @@
         <v>16625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3293,13 +3329,13 @@
         <v>23590</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3350,13 @@
         <v>447182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>407</v>
@@ -3329,13 +3365,13 @@
         <v>413605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
@@ -3344,13 +3380,13 @@
         <v>860786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3454,13 @@
         <v>68399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3433,13 +3469,13 @@
         <v>28125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3448,13 +3484,13 @@
         <v>96524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3505,13 @@
         <v>618688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -3484,13 +3520,13 @@
         <v>582130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1148</v>
@@ -3499,13 +3535,13 @@
         <v>1200818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3609,13 @@
         <v>31792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3588,13 +3624,13 @@
         <v>11422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3603,13 +3639,13 @@
         <v>43214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3660,13 @@
         <v>650071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -3639,13 +3675,13 @@
         <v>699428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -3654,13 +3690,13 @@
         <v>1349498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3764,13 @@
         <v>53065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3743,13 +3779,13 @@
         <v>29327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3758,13 +3794,13 @@
         <v>82392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3815,13 @@
         <v>561552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3794,13 +3830,13 @@
         <v>586872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -3809,13 +3845,13 @@
         <v>1148424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3883,13 +3919,13 @@
         <v>30277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3898,13 +3934,13 @@
         <v>38662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3913,13 +3949,13 @@
         <v>68939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3970,13 @@
         <v>399152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>371</v>
@@ -3949,13 +3985,13 @@
         <v>409138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3964,13 +4000,13 @@
         <v>808290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4038,13 +4074,13 @@
         <v>94569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>213</v>
@@ -4053,13 +4089,13 @@
         <v>229926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>298</v>
@@ -4068,13 +4104,13 @@
         <v>324495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4125,13 @@
         <v>465068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -4104,13 +4140,13 @@
         <v>513049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>900</v>
@@ -4119,13 +4155,13 @@
         <v>978117</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4229,13 @@
         <v>285066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -4208,13 +4244,13 @@
         <v>354087</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -4223,13 +4259,13 @@
         <v>639153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4280,13 @@
         <v>3141713</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>2974</v>
@@ -4259,13 +4295,13 @@
         <v>3204222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>5923</v>
@@ -4274,13 +4310,13 @@
         <v>6345935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,7 +4372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC5C760-54C3-454F-9822-A78B642B9DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346EC70-721E-4CA0-8527-20532D436A89}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,13 +4518,13 @@
         <v>30018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4497,13 +4533,13 @@
         <v>28940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4512,13 +4548,13 @@
         <v>58958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4569,13 @@
         <v>389445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>375</v>
@@ -4548,13 +4584,13 @@
         <v>366815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>742</v>
@@ -4563,13 +4599,13 @@
         <v>756260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4673,13 @@
         <v>62551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4652,13 +4688,13 @@
         <v>41735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -4667,13 +4703,13 @@
         <v>104287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4724,13 @@
         <v>527945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>536</v>
@@ -4703,13 +4739,13 @@
         <v>521809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -4718,13 +4754,13 @@
         <v>1049753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4828,13 @@
         <v>73183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4807,13 +4843,13 @@
         <v>29449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -4822,13 +4858,13 @@
         <v>102633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4879,13 @@
         <v>595914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>635</v>
@@ -4858,13 +4894,13 @@
         <v>631937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -4873,13 +4909,13 @@
         <v>1227850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4983,13 @@
         <v>83424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4962,13 +4998,13 @@
         <v>35537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -4977,13 +5013,13 @@
         <v>118962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5034,13 @@
         <v>562624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -5013,28 +5049,28 @@
         <v>613540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
       </c>
       <c r="N14" s="7">
-        <v>1176164</v>
+        <v>1176163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5112,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5090,7 +5126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5102,13 +5138,13 @@
         <v>55422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5117,13 +5153,13 @@
         <v>76106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5132,13 +5168,13 @@
         <v>131528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5189,13 @@
         <v>422496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -5168,13 +5204,13 @@
         <v>420743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
@@ -5183,13 +5219,13 @@
         <v>843239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5257,13 +5293,13 @@
         <v>121497</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -5272,13 +5308,13 @@
         <v>256230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5287,13 +5323,13 @@
         <v>377727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5344,13 @@
         <v>469831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -5323,13 +5359,13 @@
         <v>521701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>942</v>
@@ -5338,13 +5374,13 @@
         <v>991532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5448,13 @@
         <v>426095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>409</v>
@@ -5427,13 +5463,13 @@
         <v>467998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -5442,13 +5478,13 @@
         <v>894093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5499,13 @@
         <v>2968255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>2929</v>
@@ -5478,13 +5514,13 @@
         <v>3076544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>5755</v>
@@ -5493,13 +5529,13 @@
         <v>6044799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,7 +5591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2105974-90EB-43CC-AB93-9254510291C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D052483-1D66-426A-8AF4-29A8A6AC9FA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5701,13 +5737,13 @@
         <v>13244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5716,13 +5752,13 @@
         <v>18555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5731,13 +5767,13 @@
         <v>31800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5788,13 @@
         <v>364435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5767,13 +5803,13 @@
         <v>336402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -5782,13 +5818,13 @@
         <v>700836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5892,13 @@
         <v>66529</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -5871,13 +5907,13 @@
         <v>44107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5886,13 +5922,13 @@
         <v>110636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5943,13 @@
         <v>361867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>419</v>
@@ -5922,13 +5958,13 @@
         <v>455108</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
@@ -5937,13 +5973,13 @@
         <v>816975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6047,13 @@
         <v>86484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6026,13 +6062,13 @@
         <v>36290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -6041,13 +6077,13 @@
         <v>122774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6098,13 @@
         <v>470768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>800</v>
@@ -6077,13 +6113,13 @@
         <v>574157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -6092,13 +6128,13 @@
         <v>1044925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,7 +6190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6166,13 +6202,13 @@
         <v>138192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -6181,13 +6217,13 @@
         <v>52922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -6196,13 +6232,13 @@
         <v>191114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6253,13 @@
         <v>585798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>1055</v>
@@ -6232,13 +6268,13 @@
         <v>694339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>1584</v>
@@ -6247,13 +6283,13 @@
         <v>1280137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6321,13 +6357,13 @@
         <v>118858</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -6336,13 +6372,13 @@
         <v>102276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -6351,13 +6387,13 @@
         <v>221134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6408,13 @@
         <v>481299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>833</v>
@@ -6387,13 +6423,13 @@
         <v>494787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1365</v>
@@ -6402,13 +6438,13 @@
         <v>976086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6512,13 @@
         <v>179962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -6491,13 +6527,13 @@
         <v>411750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>1043</v>
@@ -6506,13 +6542,13 @@
         <v>591712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6563,13 @@
         <v>517793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>936</v>
@@ -6542,13 +6578,13 @@
         <v>614887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1693</v>
@@ -6557,13 +6593,13 @@
         <v>1132680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6667,13 @@
         <v>603268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>1128</v>
@@ -6646,13 +6682,13 @@
         <v>665901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>1817</v>
@@ -6661,13 +6697,13 @@
         <v>1269169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6718,13 @@
         <v>2781960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4239</v>
@@ -6697,13 +6733,13 @@
         <v>3169680</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>6926</v>
@@ -6712,13 +6748,13 @@
         <v>5951639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A65C56-5CA8-4252-BF1C-3D9BC147B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADE5C68-96A3-4EB0-902D-C5B9E061E344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F07E3513-AAA4-4C46-82A9-D7B37D5B0801}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D7EEC30-46F6-43FF-BD9A-8F103BFEFF16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1411 +140,1405 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>5,21%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>5,56%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>91,23%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>83,44%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766F3004-6C70-4FAD-A95E-0F7A487DC180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E9457D-C48B-4C8E-AA04-21042F0D7BF9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2566,7 +2560,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2575,13 +2569,13 @@
         <v>56431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2590,13 @@
         <v>487470</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>479</v>
@@ -2611,10 +2605,10 @@
         <v>490888</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>82</v>
@@ -2626,13 +2620,13 @@
         <v>978358</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2694,13 @@
         <v>26750</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2715,13 +2709,13 @@
         <v>35259</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2730,13 +2724,13 @@
         <v>62009</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2745,13 @@
         <v>359960</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -2766,13 +2760,13 @@
         <v>368727</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>727</v>
@@ -2781,13 +2775,13 @@
         <v>728687</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2849,13 @@
         <v>70299</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -2870,13 +2864,13 @@
         <v>188964</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -2885,13 +2879,13 @@
         <v>259263</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2900,13 @@
         <v>432167</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -2921,13 +2915,13 @@
         <v>487878</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>932</v>
@@ -2936,13 +2930,13 @@
         <v>920045</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3004,13 @@
         <v>238649</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>284</v>
@@ -3025,13 +3019,13 @@
         <v>296132</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -3040,13 +3034,13 @@
         <v>534781</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,16 +3052,16 @@
         <v>2987</v>
       </c>
       <c r="D23" s="7">
-        <v>3037894</v>
+        <v>3037895</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3013</v>
@@ -3076,28 +3070,28 @@
         <v>3083066</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6000</v>
       </c>
       <c r="N23" s="7">
-        <v>6120960</v>
+        <v>6120959</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3103,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3139,7 +3133,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3153,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC37FD66-AEF5-43F1-8A84-08511587126B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ADF8D8-CD44-4DCD-A397-52144D657853}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3293,13 @@
         <v>6964</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3314,13 +3308,13 @@
         <v>16625</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3329,13 +3323,13 @@
         <v>23590</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3344,13 @@
         <v>447182</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>407</v>
@@ -3365,13 +3359,13 @@
         <v>413605</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
@@ -3380,13 +3374,13 @@
         <v>860786</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3448,13 @@
         <v>68399</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3469,13 +3463,13 @@
         <v>28125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3484,13 +3478,13 @@
         <v>96524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3499,13 @@
         <v>618688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -3520,13 +3514,13 @@
         <v>582130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1148</v>
@@ -3535,13 +3529,13 @@
         <v>1200818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3603,13 @@
         <v>31792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3624,13 +3618,13 @@
         <v>11422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3639,13 +3633,13 @@
         <v>43214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3654,13 @@
         <v>650071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -3675,13 +3669,13 @@
         <v>699428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -3690,13 +3684,13 @@
         <v>1349498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3758,13 @@
         <v>53065</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3779,13 +3773,13 @@
         <v>29327</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3794,13 +3788,13 @@
         <v>82392</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3809,13 @@
         <v>561552</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3907,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3922,10 +3916,10 @@
         <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3934,13 +3928,13 @@
         <v>38662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3949,13 +3943,13 @@
         <v>68939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3964,13 @@
         <v>399152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>371</v>
@@ -3985,13 +3979,13 @@
         <v>409138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -4000,13 +3994,13 @@
         <v>808290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4068,13 @@
         <v>94569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>213</v>
@@ -4089,13 +4083,13 @@
         <v>229926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>298</v>
@@ -4104,13 +4098,13 @@
         <v>324495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4119,13 @@
         <v>465068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -4140,13 +4134,13 @@
         <v>513049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>900</v>
@@ -4155,13 +4149,13 @@
         <v>978117</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4223,13 @@
         <v>285066</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -4244,13 +4238,13 @@
         <v>354087</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -4259,13 +4253,13 @@
         <v>639153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4274,13 @@
         <v>3141713</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
         <v>2974</v>
@@ -4295,13 +4289,13 @@
         <v>3204222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>5923</v>
@@ -4310,13 +4304,13 @@
         <v>6345935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346EC70-721E-4CA0-8527-20532D436A89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73962A52-471D-4D9E-BCB2-BB27E8B34E62}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4512,13 @@
         <v>30018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4533,13 +4527,13 @@
         <v>28940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4548,13 +4542,13 @@
         <v>58958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4563,13 @@
         <v>389445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>375</v>
@@ -4584,13 +4578,13 @@
         <v>366815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>742</v>
@@ -4599,13 +4593,13 @@
         <v>756260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4667,13 @@
         <v>62551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4688,13 +4682,13 @@
         <v>41735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -4703,13 +4697,13 @@
         <v>104287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4718,13 @@
         <v>527945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>536</v>
@@ -4739,13 +4733,13 @@
         <v>521809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -4754,13 +4748,13 @@
         <v>1049753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4822,13 @@
         <v>73183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4843,13 +4837,13 @@
         <v>29449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -4858,13 +4852,13 @@
         <v>102633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4873,13 @@
         <v>595914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>635</v>
@@ -4894,13 +4888,13 @@
         <v>631937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -4909,13 +4903,13 @@
         <v>1227850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4977,13 @@
         <v>83424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4998,13 +4992,13 @@
         <v>35537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5013,13 +5007,13 @@
         <v>118962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5028,13 @@
         <v>562624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -5049,13 +5043,13 @@
         <v>613540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
@@ -5064,13 +5058,13 @@
         <v>1176163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5132,13 @@
         <v>55422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5153,13 +5147,13 @@
         <v>76106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5168,13 +5162,13 @@
         <v>131528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5183,13 @@
         <v>422496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -5204,13 +5198,13 @@
         <v>420743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
@@ -5219,13 +5213,13 @@
         <v>843239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5287,13 @@
         <v>121497</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -5308,13 +5302,13 @@
         <v>256230</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5323,13 +5317,13 @@
         <v>377727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5338,13 @@
         <v>469831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -5359,13 +5353,13 @@
         <v>521701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>942</v>
@@ -5374,13 +5368,13 @@
         <v>991532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5442,13 @@
         <v>426095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>409</v>
@@ -5463,13 +5457,13 @@
         <v>467998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -5478,13 +5472,13 @@
         <v>894093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5493,13 @@
         <v>2968255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>2929</v>
@@ -5514,13 +5508,13 @@
         <v>3076544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>5755</v>
@@ -5529,13 +5523,13 @@
         <v>6044799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D052483-1D66-426A-8AF4-29A8A6AC9FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71242629-11BB-4C68-88DF-A33884F6004F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5731,13 @@
         <v>13244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5752,13 +5746,13 @@
         <v>18555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>33</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5767,13 +5761,13 @@
         <v>31800</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5782,13 @@
         <v>364435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5803,13 +5797,13 @@
         <v>336402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -5818,13 +5812,13 @@
         <v>700836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5886,13 @@
         <v>66529</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -5907,13 +5901,13 @@
         <v>44107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5922,13 +5916,13 @@
         <v>110636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5937,13 @@
         <v>361867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H8" s="7">
         <v>419</v>
@@ -5958,13 +5952,13 @@
         <v>455108</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
@@ -5973,13 +5967,13 @@
         <v>816975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6041,13 @@
         <v>86484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6062,13 +6056,13 @@
         <v>36290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>417</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -6077,13 +6071,13 @@
         <v>122774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6092,13 @@
         <v>470768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H11" s="7">
         <v>800</v>
@@ -6113,13 +6107,13 @@
         <v>574157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>424</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -6280,7 +6274,7 @@
         <v>1584</v>
       </c>
       <c r="N14" s="7">
-        <v>1280137</v>
+        <v>1280138</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>445</v>
@@ -6331,7 +6325,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6345,7 +6339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6500,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6509,7 +6503,7 @@
         <v>271</v>
       </c>
       <c r="D19" s="7">
-        <v>179962</v>
+        <v>179961</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>466</v>
@@ -6611,7 +6605,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6703,7 +6697,7 @@
         <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6712,13 @@
         <v>2781960</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4239</v>
@@ -6733,28 +6727,28 @@
         <v>3169680</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>6926</v>
       </c>
       <c r="N23" s="7">
-        <v>5951639</v>
+        <v>5951640</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6790,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6810,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADE5C68-96A3-4EB0-902D-C5B9E061E344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EF7839-5C69-46AE-B977-1E325169C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D7EEC30-46F6-43FF-BD9A-8F103BFEFF16}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4BB949EF-ABF3-4FCE-AC2B-6054C33FB917}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="567">
   <si>
     <t>Hogares unipersonales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>6,99%</t>
@@ -191,7 +191,7 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,22%</t>
@@ -248,7 +248,7 @@
     <t>96,94%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>6,1%</t>
@@ -293,7 +293,7 @@
     <t>96,04%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -350,1087 +350,1252 @@
     <t>93,86%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>Hogares unipersonales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>79,6%</t>
@@ -1439,106 +1604,142 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E9457D-C48B-4C8E-AA04-21042F0D7BF9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DA65C8-6634-4C75-85B0-CA342D76CA5F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2843,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>70299</v>
+        <v>27239</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2858,10 +3059,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7">
-        <v>188964</v>
+        <v>74865</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2873,10 +3074,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="N19" s="7">
-        <v>259263</v>
+        <v>102104</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2894,10 +3095,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>451</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>432167</v>
+        <v>265344</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2909,10 +3110,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>481</v>
+        <v>290</v>
       </c>
       <c r="I20" s="7">
-        <v>487878</v>
+        <v>268069</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2924,10 +3125,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>932</v>
+        <v>566</v>
       </c>
       <c r="N20" s="7">
-        <v>920045</v>
+        <v>533413</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2945,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,55 +3193,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>238649</v>
+        <v>43060</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="I22" s="7">
-        <v>296132</v>
+        <v>114099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>511</v>
+        <v>144</v>
       </c>
       <c r="N22" s="7">
-        <v>534781</v>
+        <v>157159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2987</v>
+        <v>175</v>
       </c>
       <c r="D23" s="7">
-        <v>3037895</v>
+        <v>166823</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3013</v>
+        <v>191</v>
       </c>
       <c r="I23" s="7">
-        <v>3083066</v>
+        <v>219809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6000</v>
+        <v>366</v>
       </c>
       <c r="N23" s="7">
-        <v>6120959</v>
+        <v>386632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3301,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>227</v>
+      </c>
+      <c r="D25" s="7">
+        <v>238649</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>284</v>
+      </c>
+      <c r="I25" s="7">
+        <v>296132</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>511</v>
+      </c>
+      <c r="N25" s="7">
+        <v>534781</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2987</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3037894</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3013</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3083065</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6000</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6120960</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3526,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ADF8D8-CD44-4DCD-A397-52144D657853}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DD3380-66F6-4DE3-8A25-7759F03C7252}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3650,13 @@
         <v>6964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3308,13 +3665,13 @@
         <v>16625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3323,13 +3680,13 @@
         <v>23590</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3701,13 @@
         <v>447182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>407</v>
@@ -3359,13 +3716,13 @@
         <v>413605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
@@ -3374,13 +3731,13 @@
         <v>860786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3805,13 @@
         <v>68399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3463,13 +3820,13 @@
         <v>28125</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3478,13 +3835,13 @@
         <v>96524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3856,13 @@
         <v>618688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -3514,13 +3871,13 @@
         <v>582130</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1148</v>
@@ -3529,13 +3886,13 @@
         <v>1200818</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3960,13 @@
         <v>31792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3618,13 +3975,13 @@
         <v>11422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3633,13 +3990,13 @@
         <v>43214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4011,13 @@
         <v>650071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -3669,13 +4026,13 @@
         <v>699428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -3684,13 +4041,13 @@
         <v>1349498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +4115,13 @@
         <v>53065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3773,13 +4130,13 @@
         <v>29327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3788,13 +4145,13 @@
         <v>82392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +4166,13 @@
         <v>561552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3824,13 +4181,13 @@
         <v>586872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -3839,13 +4196,13 @@
         <v>1148424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +4270,13 @@
         <v>30277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3928,13 +4285,13 @@
         <v>38662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3943,13 +4300,13 @@
         <v>68939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4321,13 @@
         <v>399152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>371</v>
@@ -3979,13 +4336,13 @@
         <v>409138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>737</v>
@@ -3994,13 +4351,13 @@
         <v>808290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4419,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>94569</v>
+        <v>38029</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>229926</v>
+        <v>84576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="N19" s="7">
-        <v>324495</v>
+        <v>122605</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4470,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="D20" s="7">
-        <v>465068</v>
+        <v>271757</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>481</v>
+        <v>262</v>
       </c>
       <c r="I20" s="7">
-        <v>513049</v>
+        <v>269420</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>900</v>
+        <v>511</v>
       </c>
       <c r="N20" s="7">
-        <v>978117</v>
+        <v>541177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4521,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4536,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4551,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4568,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>285066</v>
+        <v>56540</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>354087</v>
+        <v>145350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
-        <v>584</v>
+        <v>183</v>
       </c>
       <c r="N22" s="7">
-        <v>639153</v>
+        <v>201890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4625,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2949</v>
+        <v>170</v>
       </c>
       <c r="D23" s="7">
-        <v>3141713</v>
+        <v>193311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>2974</v>
+        <v>219</v>
       </c>
       <c r="I23" s="7">
-        <v>3204222</v>
+        <v>243629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
-        <v>5923</v>
+        <v>389</v>
       </c>
       <c r="N23" s="7">
-        <v>6345935</v>
+        <v>436940</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4676,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>260</v>
+      </c>
+      <c r="D25" s="7">
+        <v>285066</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>324</v>
+      </c>
+      <c r="I25" s="7">
+        <v>354087</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M25" s="7">
+        <v>584</v>
+      </c>
+      <c r="N25" s="7">
+        <v>639153</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2949</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3141713</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2974</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3204222</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5923</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6345935</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4901,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73962A52-471D-4D9E-BCB2-BB27E8B34E62}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1178AA2A-7AB3-4C3C-A601-BADDE1A17F20}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5025,13 @@
         <v>30018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4527,13 +5040,13 @@
         <v>28940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4542,13 +5055,13 @@
         <v>58958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5076,13 @@
         <v>389445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>375</v>
@@ -4578,13 +5091,13 @@
         <v>366815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>742</v>
@@ -4593,13 +5106,13 @@
         <v>756260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5180,13 @@
         <v>62551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4682,13 +5195,13 @@
         <v>41735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -4697,13 +5210,13 @@
         <v>104287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5231,13 @@
         <v>527945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>536</v>
@@ -4733,13 +5246,13 @@
         <v>521809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>1043</v>
@@ -4748,13 +5261,13 @@
         <v>1049753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +5335,13 @@
         <v>73183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4837,13 +5350,13 @@
         <v>29449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -4852,13 +5365,13 @@
         <v>102633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5386,13 @@
         <v>595914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>635</v>
@@ -4888,13 +5401,13 @@
         <v>631937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -4903,13 +5416,13 @@
         <v>1227850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5490,13 @@
         <v>83424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4992,13 +5505,13 @@
         <v>35537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -5007,13 +5520,13 @@
         <v>118962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5541,13 @@
         <v>562624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -5043,13 +5556,13 @@
         <v>613540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>1080</v>
@@ -5058,13 +5571,13 @@
         <v>1176163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5645,13 @@
         <v>55422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5147,13 +5660,13 @@
         <v>76106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5162,13 +5675,13 @@
         <v>131528</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5696,13 @@
         <v>422496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -5198,13 +5711,13 @@
         <v>420743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
@@ -5213,13 +5726,13 @@
         <v>843239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5794,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>121497</v>
+        <v>53598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>256230</v>
+        <v>94335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>377727</v>
+        <v>147933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5845,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>498</v>
+        <v>274</v>
       </c>
       <c r="D20" s="7">
-        <v>469831</v>
+        <v>280732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>444</v>
+        <v>265</v>
       </c>
       <c r="I20" s="7">
-        <v>521701</v>
+        <v>283427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>942</v>
+        <v>539</v>
       </c>
       <c r="N20" s="7">
-        <v>991532</v>
+        <v>564159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5896,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5911,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5926,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5943,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>78</v>
+      </c>
+      <c r="D22" s="7">
+        <v>67898</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="7">
+        <v>122</v>
+      </c>
+      <c r="I22" s="7">
+        <v>161895</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D22" s="7">
-        <v>426095</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H22" s="7">
-        <v>409</v>
-      </c>
-      <c r="I22" s="7">
-        <v>467998</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="M22" s="7">
-        <v>814</v>
+        <v>200</v>
       </c>
       <c r="N22" s="7">
-        <v>894093</v>
+        <v>229794</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6000,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2826</v>
+        <v>224</v>
       </c>
       <c r="D23" s="7">
-        <v>2968255</v>
+        <v>189100</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
-        <v>2929</v>
+        <v>179</v>
       </c>
       <c r="I23" s="7">
-        <v>3076544</v>
+        <v>238274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>5755</v>
+        <v>403</v>
       </c>
       <c r="N23" s="7">
-        <v>6044799</v>
+        <v>427373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6051,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>405</v>
+      </c>
+      <c r="D25" s="7">
+        <v>426095</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="7">
+        <v>409</v>
+      </c>
+      <c r="I25" s="7">
+        <v>467998</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" s="7">
+        <v>814</v>
+      </c>
+      <c r="N25" s="7">
+        <v>894093</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2826</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2968255</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2929</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3076544</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5755</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6044799</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6276,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71242629-11BB-4C68-88DF-A33884F6004F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF9588A-774E-40F2-B767-54C8E558FB6D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6397,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>13244</v>
+        <v>16257</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>18555</v>
+        <v>15085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>33</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>31800</v>
+        <v>31342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,46 +6448,46 @@
         <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>364435</v>
+        <v>383730</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>336402</v>
+        <v>298115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>43</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
       </c>
       <c r="N5" s="7">
-        <v>700836</v>
+        <v>681845</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6499,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6514,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6529,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5883,46 +6552,46 @@
         <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>66529</v>
+        <v>67680</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>44107</v>
+        <v>39990</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
       </c>
       <c r="N7" s="7">
-        <v>110636</v>
+        <v>107670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6603,46 @@
         <v>250</v>
       </c>
       <c r="D8" s="7">
-        <v>361867</v>
+        <v>355867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>419</v>
       </c>
       <c r="I8" s="7">
-        <v>455108</v>
+        <v>472103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
       </c>
       <c r="N8" s="7">
-        <v>816975</v>
+        <v>827970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6654,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6669,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6684,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6038,46 +6707,46 @@
         <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>86484</v>
+        <v>83029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>36290</v>
+        <v>33343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>122774</v>
+        <v>116372</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6758,46 @@
         <v>458</v>
       </c>
       <c r="D11" s="7">
-        <v>470768</v>
+        <v>453309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>800</v>
       </c>
       <c r="I11" s="7">
-        <v>574157</v>
+        <v>558659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>484</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
       </c>
       <c r="N11" s="7">
-        <v>1044925</v>
+        <v>1011968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6809,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6824,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6839,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6193,46 +6862,46 @@
         <v>136</v>
       </c>
       <c r="D13" s="7">
-        <v>138192</v>
+        <v>132097</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>52922</v>
+        <v>49120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>191114</v>
+        <v>181217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6913,46 @@
         <v>529</v>
       </c>
       <c r="D14" s="7">
-        <v>585798</v>
+        <v>755689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="H14" s="7">
         <v>1055</v>
       </c>
       <c r="I14" s="7">
-        <v>694339</v>
+        <v>663761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="M14" s="7">
         <v>1584</v>
       </c>
       <c r="N14" s="7">
-        <v>1280138</v>
+        <v>1419450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6964,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6979,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +6994,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6348,46 +7017,46 @@
         <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>118858</v>
+        <v>111632</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
       </c>
       <c r="I16" s="7">
-        <v>102276</v>
+        <v>93351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
       </c>
       <c r="N16" s="7">
-        <v>221134</v>
+        <v>204983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7068,46 @@
         <v>532</v>
       </c>
       <c r="D17" s="7">
-        <v>481299</v>
+        <v>449602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>833</v>
       </c>
       <c r="I17" s="7">
-        <v>494787</v>
+        <v>454554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>1365</v>
       </c>
       <c r="N17" s="7">
-        <v>976086</v>
+        <v>904156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7119,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7134,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7149,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7169,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="D19" s="7">
-        <v>179961</v>
+        <v>80300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
-        <v>772</v>
+        <v>273</v>
       </c>
       <c r="I19" s="7">
-        <v>411750</v>
+        <v>132880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
-        <v>1043</v>
+        <v>399</v>
       </c>
       <c r="N19" s="7">
-        <v>591712</v>
+        <v>213180</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7220,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>757</v>
+        <v>444</v>
       </c>
       <c r="D20" s="7">
-        <v>517793</v>
+        <v>287865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
-        <v>936</v>
+        <v>554</v>
       </c>
       <c r="I20" s="7">
-        <v>614887</v>
+        <v>475488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
-        <v>1693</v>
+        <v>998</v>
       </c>
       <c r="N20" s="7">
-        <v>1132680</v>
+        <v>763353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7271,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7286,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7301,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7318,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>689</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7">
-        <v>603268</v>
+        <v>88396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="H22" s="7">
-        <v>1128</v>
+        <v>499</v>
       </c>
       <c r="I22" s="7">
-        <v>665901</v>
+        <v>238741</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
-        <v>1817</v>
+        <v>644</v>
       </c>
       <c r="N22" s="7">
-        <v>1269169</v>
+        <v>327138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7375,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2687</v>
+        <v>313</v>
       </c>
       <c r="D23" s="7">
-        <v>2781960</v>
+        <v>194363</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
-        <v>4239</v>
+        <v>382</v>
       </c>
       <c r="I23" s="7">
-        <v>3169680</v>
+        <v>187090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
-        <v>6926</v>
+        <v>695</v>
       </c>
       <c r="N23" s="7">
-        <v>5951640</v>
+        <v>381452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7426,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>689</v>
+      </c>
+      <c r="D25" s="7">
+        <v>579391</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1128</v>
+      </c>
+      <c r="I25" s="7">
+        <v>602510</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1817</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1181902</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2687</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2880426</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4239</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3109770</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6926</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5990195</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
